--- a/testplan/qbase_testcases.xlsx
+++ b/testplan/qbase_testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35120" yWindow="1040" windowWidth="29340" windowHeight="19640"/>
+    <workbookView xWindow="-37860" yWindow="880" windowWidth="27800" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>Test cases</t>
   </si>
@@ -143,15 +143,6 @@
     <t>Bug #</t>
   </si>
   <si>
-    <t>The result : The largest number is 1</t>
-  </si>
-  <si>
-    <t>The result : The two largest numbers are 1 and 0</t>
-  </si>
-  <si>
-    <t>The result : The two largest numbers are 0 and 0</t>
-  </si>
-  <si>
     <t>Bug#1</t>
   </si>
   <si>
@@ -219,13 +210,19 @@
   </si>
   <si>
     <t>This testcase run the script to test 'java -jar Assignment.jar --twolargest "1, $, 3, 4,5" '</t>
+  </si>
+  <si>
+    <t>Acutally Result</t>
+  </si>
+  <si>
+    <t>Execute Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +244,31 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +291,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,10 +324,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,8 +367,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,22 +680,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="32.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -665,37 +706,47 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
@@ -703,13 +754,17 @@
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="28">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19">
+        <v>42477</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="28">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>24</v>
@@ -717,15 +772,19 @@
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="28">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="19">
+        <v>42477</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="28">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>25</v>
@@ -733,15 +792,19 @@
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="28">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19">
+        <v>42477</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="28">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>22</v>
@@ -749,25 +812,33 @@
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="19">
+        <v>42477</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="28">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="28">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -775,15 +846,19 @@
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -791,13 +866,17 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -805,13 +884,17 @@
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -819,17 +902,21 @@
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -837,13 +924,17 @@
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -851,13 +942,17 @@
       <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
@@ -865,17 +960,21 @@
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="21">
+        <v>42477</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
@@ -883,13 +982,17 @@
       <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -897,41 +1000,51 @@
       <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="28">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="28">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -939,13 +1052,17 @@
       <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="28">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="28">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>24</v>
@@ -953,15 +1070,19 @@
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="28">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="28">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
@@ -969,15 +1090,19 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="28">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="28">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -985,25 +1110,33 @@
       <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="28">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="28">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>6</v>
@@ -1011,69 +1144,85 @@
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="21">
+        <v>42477</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="21">
+        <v>42477</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="21">
+        <v>42477</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>21</v>
@@ -1081,13 +1230,17 @@
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -1095,13 +1248,17 @@
       <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>14</v>
@@ -1109,17 +1266,21 @@
       <c r="C32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="22">
+        <v>42477</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
         <v>15</v>
@@ -1127,17 +1288,21 @@
       <c r="C33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="21">
+        <v>42477</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>16</v>
@@ -1145,17 +1310,21 @@
       <c r="C34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="21">
+        <v>42477</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -1163,62 +1332,71 @@
       <c r="C35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="18">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="20">
+        <v>42477</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="18">
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="98">
+        <v>42</v>
+      </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" ht="98">
       <c r="A40" s="16">
         <v>1</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="98">
+        <v>48</v>
+      </c>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" ht="98">
       <c r="A41" s="16">
         <v>2</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="98">
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="98">
       <c r="A42" s="16">
         <v>3</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D42" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testplan/qbase_testcases.xlsx
+++ b/testplan/qbase_testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37860" yWindow="880" windowWidth="27800" windowHeight="14040"/>
+    <workbookView xWindow="-34620" yWindow="900" windowWidth="32320" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <t>Acutally Result</t>
   </si>
   <si>
-    <t>Execute Date</t>
+    <t>Test execution date</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -692,7 +692,7 @@
     <col min="2" max="2" width="56.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="32.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,7 +908,7 @@
       <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>42477</v>
       </c>
       <c r="G12" s="8"/>
@@ -1400,7 +1400,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
